--- a/19aiex.xlsx
+++ b/19aiex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>sid</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>罗皓文</t>
+  </si>
+  <si>
+    <t>赵海啸</t>
   </si>
 </sst>
 </file>
@@ -470,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,257 +492,331 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>201900130122</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>201900130123</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>201900130134</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>201900130138</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>201900130142</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>201900130143</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>201900130144</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>201900130151</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>201900130160</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>201900130174</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>201900130176</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>201900150116</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>201900161098</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>201900170249</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>201900180065</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>201900301128</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>201900301174</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>201900303042</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>201905130190</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>201905130192</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>201905130194</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>201905130203</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>201918130210</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>201918130215</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>201918130222</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>201918130223</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>201920130242</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>201920130245</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>201922161291</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>201901130181</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>201800130094</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
